--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3517.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3517.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.502867220848112</v>
+        <v>1.809332370758057</v>
       </c>
       <c r="B1">
-        <v>2.659501338433685</v>
+        <v>2.569871425628662</v>
       </c>
       <c r="C1">
-        <v>3.328808907645119</v>
+        <v>2.098279476165771</v>
       </c>
       <c r="D1">
-        <v>3.840678613968892</v>
+        <v>1.80638325214386</v>
       </c>
       <c r="E1">
-        <v>1.546364604320172</v>
+        <v>1.759797811508179</v>
       </c>
     </row>
   </sheetData>
